--- a/SourceCode/2024/Feb 2024/Sairam/Task20/Task20.xlsx
+++ b/SourceCode/2024/Feb 2024/Sairam/Task20/Task20.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>L_name</t>
   </si>
@@ -49,9 +49,6 @@
   </si>
   <si>
     <t>U_name</t>
-  </si>
-  <si>
-    <t>SAI RAM</t>
   </si>
   <si>
     <t>SIRISHA</t>
@@ -415,8 +412,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B9"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -436,16 +433,13 @@
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
-        <v>10</v>
-      </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -453,7 +447,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -461,7 +455,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -469,7 +463,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -477,7 +471,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -485,7 +479,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -493,7 +487,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>
